--- a/103_BaseDeDonnees/Exercices/202_Editeur/EDITEUR Matrice.xlsx
+++ b/103_BaseDeDonnees/Exercices/202_Editeur/EDITEUR Matrice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba75d8fe6eadcc5e/Documents/GitHub/FORMATION-CDA-2210/103_BaseDeDonnees/Exercices/202_Editeur/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcravo\Documents\GitHub\FORMATION-CDA-2210\103_BaseDeDonnees\Exercices\202_Editeur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="11_AD4D9D64A577C15A4A54182B785D44C05BDEDD8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6FA9AF5-A894-4005-B242-4EB83417DA08}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F56288-3752-4474-9BD0-1D59AD755CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>livre_id</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>droits_auteur</t>
+  </si>
+  <si>
+    <t>editeur_id</t>
+  </si>
+  <si>
+    <t>editeur_nom</t>
   </si>
 </sst>
 </file>
@@ -167,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -175,6 +181,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,9 +478,10 @@
     <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -496,8 +504,11 @@
       <c r="H1" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,8 +523,9 @@
         <v>1</v>
       </c>
       <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -526,8 +538,9 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -540,8 +553,9 @@
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -554,8 +568,9 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -568,8 +583,9 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -582,8 +598,9 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -594,8 +611,9 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -608,8 +626,9 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -622,8 +641,9 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -636,8 +656,9 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -650,8 +671,9 @@
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -664,8 +686,9 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -676,8 +699,9 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -690,8 +714,9 @@
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -704,8 +729,9 @@
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -718,8 +744,9 @@
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -730,8 +757,9 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -744,8 +772,9 @@
         <v>1</v>
       </c>
       <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -758,8 +787,9 @@
         <v>1</v>
       </c>
       <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -772,8 +802,11 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -786,8 +819,9 @@
       <c r="H22" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -800,8 +834,9 @@
       <c r="H23" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -814,8 +849,9 @@
       <c r="H24" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -828,8 +864,9 @@
       <c r="H25" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -842,8 +879,9 @@
       <c r="H26" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -854,6 +892,35 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/103_BaseDeDonnees/Exercices/202_Editeur/EDITEUR Matrice.xlsx
+++ b/103_BaseDeDonnees/Exercices/202_Editeur/EDITEUR Matrice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcravo\Documents\GitHub\FORMATION-CDA-2210\103_BaseDeDonnees\Exercices\202_Editeur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba75d8fe6eadcc5e/Documents/GitHub/FORMATION-CDA-2210/103_BaseDeDonnees/Exercices/202_Editeur/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F56288-3752-4474-9BD0-1D59AD755CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{E1F56288-3752-4474-9BD0-1D59AD755CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBF61096-F04D-499B-996A-61AA3D99AA25}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>livre_id</t>
   </si>
@@ -42,9 +42,6 @@
     <t>edition_ordre</t>
   </si>
   <si>
-    <t>edition_nb_exemplaires</t>
-  </si>
-  <si>
     <t>auteur_id</t>
   </si>
   <si>
@@ -87,28 +84,28 @@
     <t>adresse_id</t>
   </si>
   <si>
-    <t>adresse_numero_voie</t>
-  </si>
-  <si>
-    <t>adresse_voie</t>
-  </si>
-  <si>
-    <t>adresse_complement_adresse</t>
-  </si>
-  <si>
     <t>adresse_code_postal</t>
   </si>
   <si>
-    <t>adresse_ville</t>
-  </si>
-  <si>
     <t>droits_auteur</t>
   </si>
   <si>
-    <t>editeur_id</t>
-  </si>
-  <si>
-    <t>editeur_nom</t>
+    <t>adresse_numero</t>
+  </si>
+  <si>
+    <t>adresse_libelle_voie</t>
+  </si>
+  <si>
+    <t>adresse_complement_remise</t>
+  </si>
+  <si>
+    <t>adresse_complement_distribution</t>
+  </si>
+  <si>
+    <t>adresse_pays</t>
+  </si>
+  <si>
+    <t>adresse_localite</t>
   </si>
 </sst>
 </file>
@@ -124,7 +121,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,6 +143,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -177,11 +180,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -197,6 +200,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -462,15 +469,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -478,449 +485,402 @@
     <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5">
-        <v>1</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
+      <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6">
-        <v>1</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6">
-        <v>1</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="5">
-        <v>1</v>
-      </c>
+      <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6">
-        <v>1</v>
-      </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6">
-        <v>1</v>
-      </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5">
-        <v>1</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5">
-        <v>1</v>
-      </c>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5">
-        <v>1</v>
-      </c>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5">
-        <v>1</v>
-      </c>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5">
-        <v>1</v>
-      </c>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5">
-        <v>1</v>
-      </c>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5">
-        <v>1</v>
-      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
